--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="445"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -3263,204 +3263,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3612,6 +3414,204 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="6"/>
@@ -4487,9 +4487,7 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4543,12 +4541,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="122">
+      <c r="I25" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43737</v>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -5094,7 +5092,7 @@
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -5104,57 +5102,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="211" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="217" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="147" t="s">
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="235" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="213" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="132">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="220">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="134"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="222"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -5162,53 +5160,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="217" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="211" t="s">
         <v>147</v>
       </c>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="135" t="str">
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="223" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="132" t="str">
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
+      <c r="AF2" s="225"/>
+      <c r="AG2" s="220" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="134"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -5216,45 +5214,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="211" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="129" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="133"/>
-      <c r="AI3" s="134"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="241"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="220"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -5291,1034 +5289,1195 @@
       <c r="A7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="196"/>
+      <c r="D7" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="156" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="156" t="s">
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="158"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="157"/>
-      <c r="AF7" s="156" t="s">
+      <c r="R7" s="197"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="197"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="196"/>
+      <c r="AF7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="157"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="196"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161">
+      <c r="C8" s="199"/>
+      <c r="D8" s="200">
         <v>43737</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="166" t="s">
+      <c r="H8" s="204"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="169" t="s">
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="208" t="s">
         <v>273</v>
       </c>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="166" t="s">
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="209"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="209"/>
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="210"/>
+      <c r="AF8" s="205" t="s">
         <v>274</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="168"/>
+      <c r="AG8" s="206"/>
+      <c r="AH8" s="206"/>
+      <c r="AI8" s="207"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="180"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="188"/>
+      <c r="AG9" s="189"/>
+      <c r="AH9" s="189"/>
+      <c r="AI9" s="190"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="178"/>
-      <c r="AG10" s="179"/>
-      <c r="AH10" s="179"/>
-      <c r="AI10" s="180"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="192"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="192"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="188"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="190"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="182"/>
-      <c r="T11" s="182"/>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="179"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="180"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="191"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="193"/>
+      <c r="AF11" s="188"/>
+      <c r="AG11" s="189"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="190"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="179"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="180"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="192"/>
+      <c r="S12" s="192"/>
+      <c r="T12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="188"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="190"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
-      <c r="V13" s="182"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="182"/>
-      <c r="AA13" s="182"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="182"/>
-      <c r="AD13" s="182"/>
-      <c r="AE13" s="183"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="180"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="189"/>
+      <c r="AI13" s="190"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
-      <c r="S14" s="182"/>
-      <c r="T14" s="182"/>
-      <c r="U14" s="182"/>
-      <c r="V14" s="182"/>
-      <c r="W14" s="182"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="182"/>
-      <c r="AA14" s="182"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="182"/>
-      <c r="AD14" s="182"/>
-      <c r="AE14" s="183"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="179"/>
-      <c r="AH14" s="179"/>
-      <c r="AI14" s="180"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="192"/>
+      <c r="S14" s="192"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="192"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="192"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="188"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="189"/>
+      <c r="AI14" s="190"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="182"/>
-      <c r="V15" s="182"/>
-      <c r="W15" s="182"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="178"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="180"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="192"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="193"/>
+      <c r="AF15" s="188"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="189"/>
+      <c r="AI15" s="190"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="182"/>
-      <c r="AD16" s="182"/>
-      <c r="AE16" s="183"/>
-      <c r="AF16" s="178"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="180"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="191"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="193"/>
+      <c r="AF16" s="188"/>
+      <c r="AG16" s="189"/>
+      <c r="AH16" s="189"/>
+      <c r="AI16" s="190"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="183"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="180"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="193"/>
+      <c r="AF17" s="188"/>
+      <c r="AG17" s="189"/>
+      <c r="AH17" s="189"/>
+      <c r="AI17" s="190"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="178"/>
-      <c r="AG18" s="179"/>
-      <c r="AH18" s="179"/>
-      <c r="AI18" s="180"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="193"/>
+      <c r="AF18" s="188"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="189"/>
+      <c r="AI18" s="190"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="182"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="182"/>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="182"/>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="182"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="183"/>
-      <c r="AF19" s="178"/>
-      <c r="AG19" s="179"/>
-      <c r="AH19" s="179"/>
-      <c r="AI19" s="180"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="191"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="193"/>
+      <c r="AF19" s="188"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="189"/>
+      <c r="AI19" s="190"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="183"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="179"/>
-      <c r="AH20" s="179"/>
-      <c r="AI20" s="180"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="192"/>
+      <c r="S20" s="192"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="192"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="192"/>
+      <c r="Z20" s="192"/>
+      <c r="AA20" s="192"/>
+      <c r="AB20" s="192"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="193"/>
+      <c r="AF20" s="188"/>
+      <c r="AG20" s="189"/>
+      <c r="AH20" s="189"/>
+      <c r="AI20" s="190"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
-      <c r="AD21" s="182"/>
-      <c r="AE21" s="183"/>
-      <c r="AF21" s="178"/>
-      <c r="AG21" s="179"/>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="180"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="191"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="192"/>
+      <c r="Z21" s="192"/>
+      <c r="AA21" s="192"/>
+      <c r="AB21" s="192"/>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="192"/>
+      <c r="AE21" s="193"/>
+      <c r="AF21" s="188"/>
+      <c r="AG21" s="189"/>
+      <c r="AH21" s="189"/>
+      <c r="AI21" s="190"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="182"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="182"/>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="182"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="182"/>
-      <c r="AD22" s="182"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="179"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="180"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="192"/>
+      <c r="S22" s="192"/>
+      <c r="T22" s="192"/>
+      <c r="U22" s="192"/>
+      <c r="V22" s="192"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="192"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="192"/>
+      <c r="AB22" s="192"/>
+      <c r="AC22" s="192"/>
+      <c r="AD22" s="192"/>
+      <c r="AE22" s="193"/>
+      <c r="AF22" s="188"/>
+      <c r="AG22" s="189"/>
+      <c r="AH22" s="189"/>
+      <c r="AI22" s="190"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="182"/>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="180"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="192"/>
+      <c r="Z23" s="192"/>
+      <c r="AA23" s="192"/>
+      <c r="AB23" s="192"/>
+      <c r="AC23" s="192"/>
+      <c r="AD23" s="192"/>
+      <c r="AE23" s="193"/>
+      <c r="AF23" s="188"/>
+      <c r="AG23" s="189"/>
+      <c r="AH23" s="189"/>
+      <c r="AI23" s="190"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="182"/>
-      <c r="T24" s="182"/>
-      <c r="U24" s="182"/>
-      <c r="V24" s="182"/>
-      <c r="W24" s="182"/>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="182"/>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="182"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="182"/>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="178"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="180"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="192"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="192"/>
+      <c r="AE24" s="193"/>
+      <c r="AF24" s="188"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="190"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="182"/>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
-      <c r="U25" s="182"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="182"/>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="182"/>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="182"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="182"/>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="178"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="180"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="192"/>
+      <c r="V25" s="192"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="192"/>
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="192"/>
+      <c r="AC25" s="192"/>
+      <c r="AD25" s="192"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="188"/>
+      <c r="AG25" s="189"/>
+      <c r="AH25" s="189"/>
+      <c r="AI25" s="190"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="182"/>
-      <c r="S26" s="182"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="182"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="182"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="183"/>
-      <c r="AF26" s="178"/>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="180"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="192"/>
+      <c r="AC26" s="192"/>
+      <c r="AD26" s="192"/>
+      <c r="AE26" s="193"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="189"/>
+      <c r="AH26" s="189"/>
+      <c r="AI26" s="190"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="179"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="182"/>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="178"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="180"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="189"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="191"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="192"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="192"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="192"/>
+      <c r="Z27" s="192"/>
+      <c r="AA27" s="192"/>
+      <c r="AB27" s="192"/>
+      <c r="AC27" s="192"/>
+      <c r="AD27" s="192"/>
+      <c r="AE27" s="193"/>
+      <c r="AF27" s="188"/>
+      <c r="AG27" s="189"/>
+      <c r="AH27" s="189"/>
+      <c r="AI27" s="190"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="183"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="180"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="191"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="192"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="188"/>
+      <c r="AG28" s="189"/>
+      <c r="AH28" s="189"/>
+      <c r="AI28" s="190"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="183"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="180"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="192"/>
+      <c r="S29" s="192"/>
+      <c r="T29" s="192"/>
+      <c r="U29" s="192"/>
+      <c r="V29" s="192"/>
+      <c r="W29" s="192"/>
+      <c r="X29" s="192"/>
+      <c r="Y29" s="192"/>
+      <c r="Z29" s="192"/>
+      <c r="AA29" s="192"/>
+      <c r="AB29" s="192"/>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="192"/>
+      <c r="AE29" s="193"/>
+      <c r="AF29" s="188"/>
+      <c r="AG29" s="189"/>
+      <c r="AH29" s="189"/>
+      <c r="AI29" s="190"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="183"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="180"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="192"/>
+      <c r="S30" s="192"/>
+      <c r="T30" s="192"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="192"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="192"/>
+      <c r="Y30" s="192"/>
+      <c r="Z30" s="192"/>
+      <c r="AA30" s="192"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="192"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="193"/>
+      <c r="AF30" s="188"/>
+      <c r="AG30" s="189"/>
+      <c r="AH30" s="189"/>
+      <c r="AI30" s="190"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="183"/>
-      <c r="AF31" s="178"/>
-      <c r="AG31" s="179"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="180"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="191"/>
+      <c r="R31" s="192"/>
+      <c r="S31" s="192"/>
+      <c r="T31" s="192"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="192"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="192"/>
+      <c r="Z31" s="192"/>
+      <c r="AA31" s="192"/>
+      <c r="AB31" s="192"/>
+      <c r="AC31" s="192"/>
+      <c r="AD31" s="192"/>
+      <c r="AE31" s="193"/>
+      <c r="AF31" s="188"/>
+      <c r="AG31" s="189"/>
+      <c r="AH31" s="189"/>
+      <c r="AI31" s="190"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="183"/>
-      <c r="AF32" s="178"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="180"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="192"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="192"/>
+      <c r="V32" s="192"/>
+      <c r="W32" s="192"/>
+      <c r="X32" s="192"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="192"/>
+      <c r="AB32" s="192"/>
+      <c r="AC32" s="192"/>
+      <c r="AD32" s="192"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="188"/>
+      <c r="AG32" s="189"/>
+      <c r="AH32" s="189"/>
+      <c r="AI32" s="190"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="183"/>
-      <c r="AF33" s="178"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="189"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="192"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="192"/>
+      <c r="W33" s="192"/>
+      <c r="X33" s="192"/>
+      <c r="Y33" s="192"/>
+      <c r="Z33" s="192"/>
+      <c r="AA33" s="192"/>
+      <c r="AB33" s="192"/>
+      <c r="AC33" s="192"/>
+      <c r="AD33" s="192"/>
+      <c r="AE33" s="193"/>
+      <c r="AF33" s="188"/>
+      <c r="AG33" s="189"/>
+      <c r="AH33" s="189"/>
+      <c r="AI33" s="190"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -6337,167 +6496,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6642,24 +6640,24 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="187"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="245"/>
+      <c r="N11" s="245"/>
+      <c r="O11" s="245"/>
+      <c r="P11" s="246"/>
     </row>
     <row r="12" spans="1:16" s="29" customFormat="1" ht="59.1" customHeight="1">
       <c r="A12" s="78" t="s">
@@ -7544,7 +7542,7 @@
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="89"/>
-      <c r="D13" s="195"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="91" t="s">
         <v>72</v>
       </c>
@@ -7574,24 +7572,24 @@
       </c>
       <c r="B14" s="89"/>
       <c r="C14" s="89"/>
-      <c r="D14" s="188" t="s">
+      <c r="D14" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="189" t="s">
+      <c r="E14" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189" t="s">
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="189" t="s">
+      <c r="I14" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J14" s="189" t="s">
+      <c r="J14" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K14" s="189"/>
+      <c r="K14" s="123"/>
       <c r="L14" s="93"/>
       <c r="M14" s="94"/>
       <c r="N14" s="95"/>
@@ -7606,22 +7604,22 @@
       </c>
       <c r="B15" s="89"/>
       <c r="C15" s="89"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="189" t="s">
+      <c r="D15" s="124"/>
+      <c r="E15" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189" t="s">
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="189" t="s">
+      <c r="I15" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="189" t="s">
+      <c r="J15" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="189"/>
+      <c r="K15" s="123"/>
       <c r="L15" s="93"/>
       <c r="M15" s="94"/>
       <c r="N15" s="95"/>
@@ -7636,22 +7634,22 @@
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="89"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="189" t="s">
+      <c r="D16" s="124"/>
+      <c r="E16" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189" t="s">
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="189" t="s">
+      <c r="I16" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="189" t="s">
+      <c r="J16" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="189"/>
+      <c r="K16" s="123"/>
       <c r="L16" s="93"/>
       <c r="M16" s="94"/>
       <c r="N16" s="95"/>
@@ -7666,22 +7664,22 @@
       </c>
       <c r="B17" s="89"/>
       <c r="C17" s="89"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="189" t="s">
+      <c r="D17" s="124"/>
+      <c r="E17" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189" t="s">
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="189" t="s">
+      <c r="J17" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K17" s="189"/>
+      <c r="K17" s="123"/>
       <c r="L17" s="93"/>
       <c r="M17" s="94"/>
       <c r="N17" s="95"/>
@@ -7696,29 +7694,29 @@
       </c>
       <c r="B18" s="89"/>
       <c r="C18" s="89"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="189" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189" t="s">
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="189" t="s">
+      <c r="I18" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="J18" s="189" t="s">
+      <c r="J18" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="189"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
     </row>
     <row r="19" spans="1:18" ht="48" customHeight="1">
       <c r="A19" s="88" t="s">
@@ -7726,29 +7724,29 @@
       </c>
       <c r="B19" s="89"/>
       <c r="C19" s="89"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="189" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189" t="s">
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="189" t="s">
+      <c r="I19" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="189" t="s">
+      <c r="J19" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K19" s="189"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
     </row>
     <row r="20" spans="1:18" ht="22.5">
       <c r="A20" s="88" t="s">
@@ -7756,29 +7754,29 @@
       </c>
       <c r="B20" s="89"/>
       <c r="C20" s="89"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="189" t="s">
+      <c r="D20" s="124"/>
+      <c r="E20" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="189"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189" t="s">
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="189" t="s">
+      <c r="I20" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="189" t="s">
+      <c r="J20" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="189"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="191"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="191"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" spans="1:18" ht="22.5">
       <c r="A21" s="88" t="s">
@@ -7786,29 +7784,29 @@
       </c>
       <c r="B21" s="89"/>
       <c r="C21" s="89"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="189" t="s">
+      <c r="D21" s="124"/>
+      <c r="E21" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189" t="s">
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="189" t="s">
+      <c r="I21" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="189" t="s">
+      <c r="J21" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K21" s="189"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="191"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="191"/>
-      <c r="R21" s="191"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:18" ht="22.5">
       <c r="A22" s="88" t="s">
@@ -7816,29 +7814,29 @@
       </c>
       <c r="B22" s="89"/>
       <c r="C22" s="89"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="189" t="s">
+      <c r="D22" s="126"/>
+      <c r="E22" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="189" t="s">
+      <c r="I22" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="189" t="s">
+      <c r="J22" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K22" s="189"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="191"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
     </row>
     <row r="23" spans="1:18" ht="48" customHeight="1">
       <c r="A23" s="88" t="s">
@@ -7846,31 +7844,31 @@
       </c>
       <c r="B23" s="89"/>
       <c r="C23" s="89"/>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="189" t="s">
+      <c r="E23" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189" t="s">
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="189" t="s">
+      <c r="I23" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="189" t="s">
+      <c r="J23" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="189"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="191"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
     </row>
     <row r="24" spans="1:18" ht="48" customHeight="1">
       <c r="A24" s="88" t="s">
@@ -7878,29 +7876,29 @@
       </c>
       <c r="B24" s="89"/>
       <c r="C24" s="89"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="189" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189" t="s">
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="189" t="s">
+      <c r="I24" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="189" t="s">
+      <c r="J24" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K24" s="189"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
     </row>
     <row r="25" spans="1:18" ht="60" customHeight="1">
       <c r="A25" s="88" t="s">
@@ -7908,29 +7906,29 @@
       </c>
       <c r="B25" s="89"/>
       <c r="C25" s="89"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="189" t="s">
+      <c r="D25" s="124"/>
+      <c r="E25" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189" t="s">
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I25" s="189" t="s">
+      <c r="I25" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="189" t="s">
+      <c r="J25" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K25" s="189"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
     </row>
     <row r="26" spans="1:18" ht="60" customHeight="1">
       <c r="A26" s="88" t="s">
@@ -7938,29 +7936,29 @@
       </c>
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="189" t="s">
+      <c r="D26" s="124"/>
+      <c r="E26" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189" t="s">
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="189" t="s">
+      <c r="I26" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="189" t="s">
+      <c r="J26" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K26" s="189"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="191"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
     </row>
     <row r="27" spans="1:18" ht="22.5">
       <c r="A27" s="88" t="s">
@@ -7968,91 +7966,91 @@
       </c>
       <c r="B27" s="89"/>
       <c r="C27" s="89"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="193" t="s">
+      <c r="D27" s="124"/>
+      <c r="E27" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188" t="s">
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="188" t="s">
+      <c r="I27" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="189" t="s">
+      <c r="J27" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="188"/>
-      <c r="L27" s="194"/>
-      <c r="M27" s="194"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="194"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
     </row>
     <row r="28" spans="1:18" ht="22.5">
       <c r="A28" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="197" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="198" t="s">
+      <c r="D28" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="199"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="202" t="s">
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="203" t="s">
+      <c r="I28" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="231" t="s">
+      <c r="J28" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="K28" s="231"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="204"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="138"/>
     </row>
     <row r="29" spans="1:18" ht="22.5">
       <c r="A29" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="205"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="207" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="199"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="202" t="s">
+      <c r="E29" s="133"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="203" t="s">
+      <c r="I29" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="231" t="s">
+      <c r="J29" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="K29" s="231"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="204"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:18" ht="33.75">
       <c r="A30" s="33" t="s">
@@ -8074,10 +8072,10 @@
       <c r="I30" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="230" t="s">
+      <c r="J30" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="232" t="s">
+      <c r="K30" s="166" t="s">
         <v>233</v>
       </c>
       <c r="L30" s="39" t="s">
@@ -8089,7 +8087,7 @@
       <c r="N30" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O30" s="246">
+      <c r="O30" s="180">
         <v>43737</v>
       </c>
       <c r="P30" s="39"/>
@@ -8102,16 +8100,16 @@
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="242"/>
-      <c r="J31" s="230" t="s">
+      <c r="D31" s="175"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="K31" s="232" t="s">
+      <c r="K31" s="166" t="s">
         <v>233</v>
       </c>
       <c r="L31" s="39" t="s">
@@ -8123,7 +8121,7 @@
       <c r="N31" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O31" s="246">
+      <c r="O31" s="180">
         <v>43737</v>
       </c>
       <c r="P31" s="39"/>
@@ -8136,16 +8134,16 @@
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="51"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="230" t="s">
+      <c r="D32" s="175"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="K32" s="232" t="s">
+      <c r="K32" s="166" t="s">
         <v>239</v>
       </c>
       <c r="L32" s="39" t="s">
@@ -8157,7 +8155,7 @@
       <c r="N32" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O32" s="246">
+      <c r="O32" s="180">
         <v>43737</v>
       </c>
       <c r="P32" s="39"/>
@@ -8174,12 +8172,12 @@
       <c r="E33" s="65"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="230" t="s">
+      <c r="H33" s="177"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="164" t="s">
         <v>238</v>
       </c>
-      <c r="K33" s="232" t="s">
+      <c r="K33" s="166" t="s">
         <v>239</v>
       </c>
       <c r="L33" s="39" t="s">
@@ -8191,7 +8189,7 @@
       <c r="N33" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O33" s="246">
+      <c r="O33" s="180">
         <v>43737</v>
       </c>
       <c r="P33" s="39"/>
@@ -8204,22 +8202,22 @@
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="51"/>
-      <c r="D34" s="229" t="s">
+      <c r="D34" s="163" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="65"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="239" t="s">
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="240" t="s">
+      <c r="I34" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="230" t="s">
+      <c r="J34" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="232" t="s">
+      <c r="K34" s="166" t="s">
         <v>241</v>
       </c>
       <c r="L34" s="39" t="s">
@@ -8231,7 +8229,7 @@
       <c r="N34" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O34" s="246">
+      <c r="O34" s="180">
         <v>43737</v>
       </c>
       <c r="P34" s="39"/>
@@ -8242,29 +8240,29 @@
       <c r="A35" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="214" t="s">
+      <c r="B35" s="139"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="199"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="216" t="s">
+      <c r="E35" s="133"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="211" t="s">
+      <c r="I35" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="191"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="191"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="191"/>
-      <c r="Q35" s="191"/>
-      <c r="R35" s="204"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="138"/>
     </row>
     <row r="36" spans="1:18" ht="33.75">
       <c r="A36" s="33" t="s">
@@ -8284,10 +8282,10 @@
       <c r="I36" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="J36" s="230" t="s">
+      <c r="J36" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="K36" s="232" t="s">
+      <c r="K36" s="166" t="s">
         <v>243</v>
       </c>
       <c r="L36" s="39" t="s">
@@ -8299,7 +8297,7 @@
       <c r="N36" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O36" s="246">
+      <c r="O36" s="180">
         <v>43737</v>
       </c>
       <c r="P36" s="39"/>
@@ -8324,10 +8322,10 @@
       <c r="I37" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="230" t="s">
+      <c r="J37" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="K37" s="232" t="s">
+      <c r="K37" s="166" t="s">
         <v>243</v>
       </c>
       <c r="L37" s="39" t="s">
@@ -8339,7 +8337,7 @@
       <c r="N37" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O37" s="246">
+      <c r="O37" s="180">
         <v>43737</v>
       </c>
       <c r="P37" s="39"/>
@@ -8350,183 +8348,183 @@
       <c r="A38" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="197" t="s">
+      <c r="B38" s="139"/>
+      <c r="C38" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="209" t="s">
+      <c r="D38" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="210" t="s">
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="211" t="s">
+      <c r="I38" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="233" t="s">
+      <c r="J38" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="K38" s="234"/>
-      <c r="L38" s="212"/>
-      <c r="M38" s="212"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="212"/>
-      <c r="Q38" s="212"/>
-      <c r="R38" s="212"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
     </row>
     <row r="39" spans="1:18" ht="48" customHeight="1">
       <c r="A39" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="213"/>
-      <c r="D39" s="214" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="199"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216" t="s">
+      <c r="E39" s="133"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="203" t="s">
+      <c r="I39" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="233" t="s">
+      <c r="J39" s="167" t="s">
         <v>261</v>
       </c>
       <c r="K39" s="107"/>
-      <c r="L39" s="217"/>
-      <c r="M39" s="217"/>
-      <c r="N39" s="217"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="217"/>
-      <c r="Q39" s="217"/>
-      <c r="R39" s="217"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
     </row>
     <row r="40" spans="1:18" ht="48" customHeight="1">
       <c r="A40" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="214" t="s">
+      <c r="B40" s="139"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="199"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="218" t="s">
+      <c r="E40" s="133"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="219" t="s">
+      <c r="I40" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="J40" s="233" t="s">
+      <c r="J40" s="167" t="s">
         <v>261</v>
       </c>
       <c r="K40" s="107"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="217"/>
-      <c r="N40" s="217"/>
-      <c r="O40" s="217"/>
-      <c r="P40" s="217"/>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151"/>
     </row>
     <row r="41" spans="1:18" ht="59.1" customHeight="1">
       <c r="A41" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="205"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="214" t="s">
+      <c r="B41" s="139"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="199"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="221" t="s">
+      <c r="E41" s="133"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="222" t="s">
+      <c r="I41" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="233" t="s">
+      <c r="J41" s="167" t="s">
         <v>261</v>
       </c>
       <c r="K41" s="107"/>
-      <c r="L41" s="217"/>
-      <c r="M41" s="217"/>
-      <c r="N41" s="217"/>
-      <c r="O41" s="217"/>
-      <c r="P41" s="217"/>
-      <c r="Q41" s="217"/>
-      <c r="R41" s="217"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
     </row>
     <row r="42" spans="1:18" ht="59.1" customHeight="1">
       <c r="A42" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="223" t="s">
+      <c r="B42" s="139"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="199"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="221" t="s">
+      <c r="E42" s="133"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="222" t="s">
+      <c r="I42" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="J42" s="233" t="s">
+      <c r="J42" s="167" t="s">
         <v>261</v>
       </c>
       <c r="K42" s="107"/>
-      <c r="L42" s="217"/>
-      <c r="M42" s="217"/>
-      <c r="N42" s="217"/>
-      <c r="O42" s="217"/>
-      <c r="P42" s="217"/>
-      <c r="Q42" s="217"/>
-      <c r="R42" s="217"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
     </row>
     <row r="43" spans="1:18" ht="22.5">
       <c r="A43" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="205"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="223" t="s">
+      <c r="B43" s="139"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="199"/>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="221" t="s">
+      <c r="E43" s="133"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="I43" s="222" t="s">
+      <c r="I43" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="233" t="s">
+      <c r="J43" s="167" t="s">
         <v>261</v>
       </c>
       <c r="K43" s="107"/>
-      <c r="L43" s="217"/>
-      <c r="M43" s="217"/>
-      <c r="N43" s="217"/>
-      <c r="O43" s="217"/>
-      <c r="P43" s="217"/>
-      <c r="Q43" s="217"/>
-      <c r="R43" s="217"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
     </row>
     <row r="44" spans="1:18" ht="22.5">
       <c r="A44" s="33" t="s">
@@ -8548,10 +8546,10 @@
       <c r="I44" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="236" t="s">
+      <c r="J44" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="237" t="s">
+      <c r="K44" s="171" t="s">
         <v>246</v>
       </c>
       <c r="L44" s="39" t="s">
@@ -8563,7 +8561,7 @@
       <c r="N44" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O44" s="246">
+      <c r="O44" s="180">
         <v>43737</v>
       </c>
       <c r="P44" s="55"/>
@@ -8588,10 +8586,10 @@
       <c r="I45" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="236" t="s">
+      <c r="J45" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="244" t="s">
+      <c r="K45" s="178" t="s">
         <v>267</v>
       </c>
       <c r="L45" s="39" t="s">
@@ -8603,7 +8601,7 @@
       <c r="N45" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O45" s="246">
+      <c r="O45" s="180">
         <v>43737</v>
       </c>
       <c r="P45" s="55"/>
@@ -8628,10 +8626,10 @@
       <c r="I46" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="236" t="s">
+      <c r="J46" s="170" t="s">
         <v>248</v>
       </c>
-      <c r="K46" s="244" t="s">
+      <c r="K46" s="178" t="s">
         <v>267</v>
       </c>
       <c r="L46" s="39" t="s">
@@ -8643,7 +8641,7 @@
       <c r="N46" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="O46" s="246">
+      <c r="O46" s="180">
         <v>43737</v>
       </c>
       <c r="P46" s="55"/>
@@ -8654,159 +8652,159 @@
       <c r="A47" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="205"/>
-      <c r="C47" s="213"/>
-      <c r="D47" s="223" t="s">
+      <c r="B47" s="139"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="210" t="s">
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="211" t="s">
+      <c r="I47" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="245" t="s">
+      <c r="J47" s="179" t="s">
         <v>265</v>
       </c>
       <c r="K47" s="107"/>
-      <c r="L47" s="217"/>
-      <c r="M47" s="217"/>
-      <c r="N47" s="217"/>
-      <c r="O47" s="217"/>
-      <c r="P47" s="217"/>
-      <c r="Q47" s="217"/>
-      <c r="R47" s="217"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="205"/>
-      <c r="C48" s="224" t="s">
+      <c r="B48" s="139"/>
+      <c r="C48" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="198" t="s">
+      <c r="D48" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="199"/>
-      <c r="F48" s="199"/>
-      <c r="G48" s="199"/>
-      <c r="H48" s="210" t="s">
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="211" t="s">
+      <c r="I48" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="235" t="s">
+      <c r="J48" s="169" t="s">
         <v>262</v>
       </c>
       <c r="K48" s="107"/>
-      <c r="L48" s="217"/>
-      <c r="M48" s="217"/>
-      <c r="N48" s="217"/>
-      <c r="O48" s="217"/>
-      <c r="P48" s="217"/>
-      <c r="Q48" s="217"/>
-      <c r="R48" s="217"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="205"/>
-      <c r="C49" s="224" t="s">
+      <c r="B49" s="139"/>
+      <c r="C49" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="198" t="s">
+      <c r="D49" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="210" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="211" t="s">
+      <c r="I49" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="J49" s="235" t="s">
+      <c r="J49" s="169" t="s">
         <v>263</v>
       </c>
       <c r="K49" s="107"/>
-      <c r="L49" s="217"/>
-      <c r="M49" s="217"/>
-      <c r="N49" s="217"/>
-      <c r="O49" s="217"/>
-      <c r="P49" s="217"/>
-      <c r="Q49" s="217"/>
-      <c r="R49" s="217"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="224" t="s">
+      <c r="B50" s="139"/>
+      <c r="C50" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="198" t="s">
+      <c r="D50" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="199"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="210" t="s">
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="211" t="s">
+      <c r="I50" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="245" t="s">
+      <c r="J50" s="179" t="s">
         <v>228</v>
       </c>
       <c r="K50" s="107"/>
-      <c r="L50" s="217"/>
-      <c r="M50" s="217"/>
-      <c r="N50" s="217"/>
-      <c r="O50" s="217"/>
-      <c r="P50" s="217"/>
-      <c r="Q50" s="217"/>
-      <c r="R50" s="217"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="225"/>
-      <c r="C51" s="226" t="s">
+      <c r="B51" s="159"/>
+      <c r="C51" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="227" t="s">
+      <c r="D51" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="199"/>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="210" t="s">
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="228" t="s">
+      <c r="I51" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="235" t="s">
+      <c r="J51" s="169" t="s">
         <v>264</v>
       </c>
       <c r="K51" s="107"/>
-      <c r="L51" s="217"/>
-      <c r="M51" s="217"/>
-      <c r="N51" s="217"/>
-      <c r="O51" s="217"/>
-      <c r="P51" s="217"/>
-      <c r="Q51" s="217"/>
-      <c r="R51" s="217"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="151"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:R10"/>
